--- a/02-intermediate/157-hands-on-03.xlsx
+++ b/02-intermediate/157-hands-on-03.xlsx
@@ -4112,7 +4112,7 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -7257,7 +7257,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="82" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMCLEOD&amp;C&amp;G&amp;R&amp;P of &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F
@@ -7266,6 +7266,9 @@
 &amp;R&amp;D
 &amp;T</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="52" man="1"/>
+  </colBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>